--- a/rpt/Journal de travail/carte_electronique_didactique_PittetL02-rpt-journal.xlsx
+++ b/rpt/Journal de travail/carte_electronique_didactique_PittetL02-rpt-journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/loic_pittet_studentfr_ch/Documents/TPI_PITTETL02/tpi_carte_electronique_didactique_pittetl02/rpt/Journal de travail/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="750" documentId="11_416AEE08F1E9306E2D9B4F0BC9E4841233F83705" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EA56FA3-5B5E-4084-8FD9-79470FAB5357}"/>
+  <xr:revisionPtr revIDLastSave="793" documentId="11_416AEE08F1E9306E2D9B4F0BC9E4841233F83705" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4CBB7F0-6DB0-4515-9B71-D1F9D318E785}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="15" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="121">
   <si>
     <t>Date</t>
   </si>
@@ -140,21 +140,6 @@
     <t>Pittet Loïc</t>
   </si>
   <si>
-    <t>[2024-09-02]</t>
-  </si>
-  <si>
-    <t>[2024-09-03]</t>
-  </si>
-  <si>
-    <t>[2024-09-04]</t>
-  </si>
-  <si>
-    <t>[2024-09-05]</t>
-  </si>
-  <si>
-    <t>[2024-09-06]</t>
-  </si>
-  <si>
     <t>[2024-09-09]</t>
   </si>
   <si>
@@ -414,6 +399,48 @@
   </si>
   <si>
     <t xml:space="preserve">1ère semaine où j'ai dû avoir beaucoup de réflexion et d'aide aussi pour pouvoir avancer dans la bonne direction. Mais maintenant que les gros points ont été traité, je peux maintenant avancer plus en autonomie. Je suis dans les temps si l'on regarde mon planning. </t>
+  </si>
+  <si>
+    <t>[2025-05-19]</t>
+  </si>
+  <si>
+    <t>[2025-05-20]</t>
+  </si>
+  <si>
+    <t>[2025-05-21]</t>
+  </si>
+  <si>
+    <t>[2025-05-22]</t>
+  </si>
+  <si>
+    <t>[2025-05-23]</t>
+  </si>
+  <si>
+    <t>Finalisation des empreintes et du schéma sur Altium</t>
+  </si>
+  <si>
+    <t>Test DRC efféctué sans erreur</t>
+  </si>
+  <si>
+    <t>Remplissage rpt de travail et de développement</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test avec le nouveau photo-tranistor pour détérminer la résistance pour qu'à lumière ambiante, la tension de seuil soit d'environ de 2.5V </t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>Début de la conception du PCB sur Altium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création et remplissage de la BOM                       Importation empreintes 3D                                                              </t>
+  </si>
+  <si>
+    <t>Changement de résistence de 6k8 à 10k</t>
   </si>
 </sst>
 </file>
@@ -617,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -740,11 +767,58 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2470,47 +2544,47 @@
   <sheetData>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2524,9 +2598,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J41" sqref="J41"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2581,7 +2655,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>2</v>
@@ -2603,18 +2677,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A5" s="40" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="13">
@@ -2626,10 +2700,10 @@
       <c r="A6" s="41"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="13">
@@ -2637,14 +2711,14 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" s="10" customFormat="1" ht="101.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="10" customFormat="1" ht="123.75" x14ac:dyDescent="0.2">
       <c r="A7" s="41"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="13">
@@ -2656,44 +2730,44 @@
       <c r="A8" s="41"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F8" s="6">
         <v>2</v>
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A9" s="41"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F9" s="6">
         <v>1</v>
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A10" s="41"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="6">
@@ -2703,7 +2777,7 @@
     </row>
     <row r="11" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -2717,52 +2791,52 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" s="10" customFormat="1" ht="135" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="10" customFormat="1" ht="168.75" x14ac:dyDescent="0.2">
       <c r="A12" s="41" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F12" s="6">
         <v>3</v>
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" s="10" customFormat="1" ht="123.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="10" customFormat="1" ht="157.5" x14ac:dyDescent="0.2">
       <c r="A13" s="41"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F13" s="6">
         <v>3</v>
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A14" s="41"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="6">
@@ -2774,10 +2848,10 @@
       <c r="A15" s="41"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="6">
@@ -2787,7 +2861,7 @@
     </row>
     <row r="16" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -2801,21 +2875,21 @@
       </c>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="1:7" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F17" s="6">
         <v>0.5</v>
@@ -2826,10 +2900,10 @@
       <c r="A18" s="41"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="6">
@@ -2841,30 +2915,30 @@
       <c r="A19" s="41"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F19" s="6">
         <v>3</v>
       </c>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="10" customFormat="1" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A20" s="41"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F20" s="6">
         <v>0.5</v>
@@ -2873,7 +2947,7 @@
     </row>
     <row r="21" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -2892,13 +2966,13 @@
         <v>8</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="6">
@@ -2906,34 +2980,34 @@
       </c>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A23" s="41"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F23" s="6">
         <v>2</v>
       </c>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A24" s="41"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F24" s="6">
         <v>0.5</v>
@@ -2944,10 +3018,10 @@
       <c r="A25" s="41"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="6">
@@ -2959,10 +3033,10 @@
       <c r="A26" s="41"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="6">
@@ -2974,13 +3048,13 @@
       <c r="A27" s="41"/>
       <c r="B27" s="4"/>
       <c r="C27" s="28" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F27" s="10">
         <v>1</v>
@@ -2989,7 +3063,7 @@
     </row>
     <row r="28" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -3008,13 +3082,13 @@
         <v>9</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="6">
@@ -3022,14 +3096,14 @@
       </c>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A30" s="41"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="6">
@@ -3037,48 +3111,48 @@
       </c>
       <c r="G30" s="14"/>
     </row>
-    <row r="31" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" s="10" customFormat="1" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A31" s="41"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D31" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="F31" s="6">
         <v>2</v>
       </c>
       <c r="G31" s="14"/>
     </row>
-    <row r="32" spans="1:7" s="10" customFormat="1" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" s="10" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A32" s="41"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F32" s="6">
         <v>1.5</v>
       </c>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="1:7" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A33" s="41"/>
       <c r="B33" s="4"/>
       <c r="C33" s="29" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="29">
@@ -3106,7 +3180,7 @@
     </row>
     <row r="36" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="25" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B36" s="26"/>
       <c r="C36" s="19"/>
@@ -3138,7 +3212,7 @@
     </row>
     <row r="38" spans="1:7" s="10" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="31" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B38" s="32"/>
       <c r="C38" s="32"/>
@@ -3164,18 +3238,18 @@
     <mergeCell ref="A29:A35"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F26 F28:F32 F36">
-    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="2" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="containsText" dxfId="29" priority="11" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="33" priority="11" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",G37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="12" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="32" priority="12" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",G37)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3188,16 +3262,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:F6"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="35" style="1" customWidth="1"/>
     <col min="5" max="5" width="35.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="1" customWidth="1"/>
@@ -3245,7 +3319,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>2</v>
@@ -3267,33 +3341,59 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A5" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="13"/>
+      <c r="B5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="13">
+        <v>4</v>
+      </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A6" s="41"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="13"/>
+      <c r="C6" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.5</v>
+      </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A7" s="41"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="13"/>
+      <c r="C7" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1.5</v>
+      </c>
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3314,18 +3414,24 @@
       <c r="F9" s="6"/>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="41"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="6"/>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
       <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -3335,16 +3441,18 @@
       </c>
       <c r="F11" s="18">
         <f>SUM(F5:F10)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A12" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="6"/>
@@ -3353,7 +3461,7 @@
     <row r="13" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A13" s="41"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="6"/>
@@ -3379,7 +3487,7 @@
     </row>
     <row r="16" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -3393,12 +3501,14 @@
       </c>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="6"/>
@@ -3407,7 +3517,7 @@
     <row r="18" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A18" s="41"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="6"/>
@@ -3416,7 +3526,7 @@
     <row r="19" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="41"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
+      <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="6"/>
@@ -3426,13 +3536,14 @@
       <c r="A20" s="41"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="6"/>
       <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -3446,11 +3557,13 @@
       </c>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A22" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -3485,44 +3598,45 @@
       <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17" t="s">
+      <c r="A26" s="41"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="41"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="24"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="18">
-        <f>SUM(F22:F25)</f>
+      <c r="F28" s="18">
+        <f>SUM(F22:F27)</f>
         <v>0</v>
       </c>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="41" t="s">
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="1:7" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="41"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="41"/>
-      <c r="B29" s="4"/>
+      <c r="B29" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -3539,148 +3653,148 @@
       <c r="G30" s="14"/>
     </row>
     <row r="31" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20" t="s">
+      <c r="A31" s="41"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" s="10" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="41"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="41"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="41"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="14"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="41"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="26"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="21">
-        <f>SUM(F27:F30)</f>
+      <c r="F36" s="21">
+        <f>SUM(F29:F33)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="14"/>
-    </row>
-    <row r="32" spans="1:7" s="10" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="38" t="s">
+      <c r="G36" s="14"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17" t="s">
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="22">
-        <f>F11+F16+F21+F26+F31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
+      <c r="G37" s="22">
+        <f>F11+F16+F21+F28+F36</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="33"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
+      <c r="A41" s="44"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A33:G41"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A32:D32"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A17:A20"/>
   </mergeCells>
-  <conditionalFormatting sqref="F5:F31">
-    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="Terminé">
+  <conditionalFormatting sqref="F5:F26 F28:F32 F36">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
-    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",G32)))</formula>
+  <conditionalFormatting sqref="G37">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",G37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",G32)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",G37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3841,7 +3955,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -3895,7 +4009,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -3949,7 +4063,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -4002,7 +4116,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -4056,7 +4170,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -4142,11 +4256,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A35:G40"/>
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="A34:D34"/>
@@ -4155,20 +4264,25 @@
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A24:A27"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F33">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",F7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",G34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",G34)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4311,7 +4425,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -4365,7 +4479,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -4419,7 +4533,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -4473,7 +4587,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -4527,7 +4641,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -4613,6 +4727,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A33:G38"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A32:D32"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A12:A15"/>
@@ -4620,26 +4740,20 @@
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A33:G38"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A32:D32"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F31">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",G32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",G32)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4782,7 +4896,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -4836,7 +4950,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -4890,7 +5004,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -4944,7 +5058,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -4998,7 +5112,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -5093,6 +5207,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A33:G39"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A32:D32"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A12:A15"/>
@@ -5100,7 +5220,481 @@
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F5:F31">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",F5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",F5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",G32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",G32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37F8995-69C5-4415-B491-47DB456548C7}">
+  <dimension ref="A1:G39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:G39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="41"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="41"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="41"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="41"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="41"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="18">
+        <f>SUM(F5:F10)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="41"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="41"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="41"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="18">
+        <f>SUM(F12:F15)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="41"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="18">
+        <f>SUM(F17:F20)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="41"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="41"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="41"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="18">
+        <f>SUM(F22:F25)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="41"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="41"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="41"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="21">
+        <f>SUM(F27:F30)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="22">
+        <f>F11+F16+F21+F26+F31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="43"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
     <mergeCell ref="A33:G39"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
@@ -5128,486 +5722,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37F8995-69C5-4415-B491-47DB456548C7}">
-  <dimension ref="A1:G39"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:G39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="18">
-        <f>SUM(F5:F10)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="18">
-        <f>SUM(F12:F15)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="18">
-        <f>SUM(F17:F20)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="18">
-        <f>SUM(F22:F25)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="14"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="14"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="21">
-        <f>SUM(F27:F30)</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="14"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="22">
-        <f>F11+F16+F21+F26+F31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A33:G39"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A32:D32"/>
-  </mergeCells>
-  <conditionalFormatting sqref="F5:F31">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",F5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",F5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",G32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",G32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8130D56E-805D-4CA4-A4B5-6A8EEF788C7C}">
   <dimension ref="A1:G39"/>
@@ -5742,7 +5856,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -5796,7 +5910,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -5850,7 +5964,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -5904,7 +6018,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -5958,7 +6072,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -6053,12 +6167,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
     <mergeCell ref="A33:G39"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A12:A15"/>
@@ -6066,20 +6174,26 @@
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F31">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",G32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",G32)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6218,7 +6332,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -6272,7 +6386,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -6326,7 +6440,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -6380,7 +6494,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -6434,7 +6548,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -6529,12 +6643,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
     <mergeCell ref="A33:G39"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A12:A15"/>
@@ -6542,20 +6650,26 @@
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F31">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",G32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",G32)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/rpt/Journal de travail/carte_electronique_didactique_PittetL02-rpt-journal.xlsx
+++ b/rpt/Journal de travail/carte_electronique_didactique_PittetL02-rpt-journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/loic_pittet_studentfr_ch/Documents/TPI_PITTETL02/tpi_carte_electronique_didactique_pittetl02/rpt/Journal de travail/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="793" documentId="11_416AEE08F1E9306E2D9B4F0BC9E4841233F83705" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4CBB7F0-6DB0-4515-9B71-D1F9D318E785}"/>
+  <xr:revisionPtr revIDLastSave="809" documentId="11_416AEE08F1E9306E2D9B4F0BC9E4841233F83705" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D21DC2C0-4C70-47A7-8377-1A5898A0CFE4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="128">
   <si>
     <t>Date</t>
   </si>
@@ -441,6 +441,27 @@
   </si>
   <si>
     <t>Changement de résistence de 6k8 à 10k</t>
+  </si>
+  <si>
+    <t>Layout</t>
+  </si>
+  <si>
+    <t>Placement des composants et routage.</t>
+  </si>
+  <si>
+    <t>Corrections des erreurs de routage et placement.</t>
+  </si>
+  <si>
+    <t>Visite des experts.</t>
+  </si>
+  <si>
+    <t>Recherche d'un rail pour le capteur pour pouvoir facilement cacher la lumière et précisément.</t>
+  </si>
+  <si>
+    <t>Rien trouvé d'intéressant.</t>
+  </si>
+  <si>
+    <t>Discussion sur l'état du projet.</t>
   </si>
 </sst>
 </file>
@@ -728,6 +749,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -767,58 +791,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <font>
         <strike val="0"/>
@@ -2599,8 +2576,8 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G38"/>
+      <pane ySplit="4" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2631,10 +2608,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2642,19 +2619,19 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="35" t="s">
         <v>98</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -2665,11 +2642,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="34"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="11" t="s">
         <v>3</v>
       </c>
@@ -2678,7 +2655,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="41" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2697,7 +2674,7 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="41"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
         <v>63</v>
@@ -2712,7 +2689,7 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" s="10" customFormat="1" ht="123.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="41"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
         <v>65</v>
@@ -2727,7 +2704,7 @@
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
         <v>67</v>
@@ -2744,7 +2721,7 @@
       <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
         <v>70</v>
@@ -2761,7 +2738,7 @@
       <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="41"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
         <v>63</v>
@@ -2792,7 +2769,7 @@
       <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" s="10" customFormat="1" ht="168.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="42" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -2813,7 +2790,7 @@
       <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7" s="10" customFormat="1" ht="157.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="41"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
         <v>65</v>
@@ -2830,7 +2807,7 @@
       <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="41"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
         <v>63</v>
@@ -2845,7 +2822,7 @@
       <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="41"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
         <v>77</v>
@@ -2876,7 +2853,7 @@
       <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="42" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -2897,7 +2874,7 @@
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="41"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
         <v>70</v>
@@ -2912,7 +2889,7 @@
       <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" s="10" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="41"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
         <v>81</v>
@@ -2929,7 +2906,7 @@
       <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" s="10" customFormat="1" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="41"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
         <v>63</v>
@@ -2962,7 +2939,7 @@
       <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="42" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -2981,7 +2958,7 @@
       <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A23" s="41"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
         <v>70</v>
@@ -2998,7 +2975,7 @@
       <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A24" s="41"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
         <v>77</v>
@@ -3015,7 +2992,7 @@
       <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="41"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
         <v>63</v>
@@ -3030,7 +3007,7 @@
       <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="41"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
         <v>95</v>
@@ -3045,7 +3022,7 @@
       <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" s="10" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="41"/>
+      <c r="A27" s="42"/>
       <c r="B27" s="4"/>
       <c r="C27" s="28" t="s">
         <v>81</v>
@@ -3078,7 +3055,7 @@
       <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="42" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -3097,7 +3074,7 @@
       <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="41"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
         <v>65</v>
@@ -3112,7 +3089,7 @@
       <c r="G30" s="14"/>
     </row>
     <row r="31" spans="1:7" s="10" customFormat="1" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="41"/>
+      <c r="A31" s="42"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
         <v>70</v>
@@ -3129,7 +3106,7 @@
       <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:7" s="10" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="41"/>
+      <c r="A32" s="42"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
         <v>81</v>
@@ -3146,7 +3123,7 @@
       <c r="G32" s="14"/>
     </row>
     <row r="33" spans="1:7" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A33" s="41"/>
+      <c r="A33" s="42"/>
       <c r="B33" s="4"/>
       <c r="C33" s="29" t="s">
         <v>65</v>
@@ -3161,7 +3138,7 @@
       <c r="G33" s="14"/>
     </row>
     <row r="34" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="41"/>
+      <c r="A34" s="42"/>
       <c r="B34" s="4"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
@@ -3170,7 +3147,7 @@
       <c r="G34" s="14"/>
     </row>
     <row r="35" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="41"/>
+      <c r="A35" s="42"/>
       <c r="B35" s="4"/>
       <c r="C35" s="29"/>
       <c r="D35" s="29"/>
@@ -3195,12 +3172,12 @@
       <c r="G36" s="14"/>
     </row>
     <row r="37" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="37"/>
       <c r="E37" s="17"/>
       <c r="F37" s="17" t="s">
         <v>12</v>
@@ -3211,15 +3188,15 @@
       </c>
     </row>
     <row r="38" spans="1:7" s="10" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3238,18 +3215,18 @@
     <mergeCell ref="A29:A35"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F26 F28:F32 F36">
-    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="30" priority="2" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="containsText" dxfId="33" priority="11" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="29" priority="11" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",G37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="12" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="28" priority="12" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",G37)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3264,7 +3241,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3295,10 +3272,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -3306,19 +3283,19 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="35" t="s">
         <v>98</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -3329,11 +3306,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="34"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="11" t="s">
         <v>3</v>
       </c>
@@ -3342,7 +3319,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="41" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -3363,7 +3340,7 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="41"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
         <v>115</v>
@@ -3380,7 +3357,7 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="41"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
         <v>117</v>
@@ -3397,7 +3374,7 @@
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -3406,7 +3383,7 @@
       <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -3415,7 +3392,7 @@
       <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="41"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
         <v>63</v>
@@ -3446,43 +3423,73 @@
       <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="42" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="6"/>
+      <c r="C12" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="6">
+        <v>3.5</v>
+      </c>
       <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="41"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="6"/>
+      <c r="C13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="41"/>
+    <row r="14" spans="1:7" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="42"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="6"/>
+      <c r="C14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1.5</v>
+      </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="41"/>
+    <row r="15" spans="1:7" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="42"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="6"/>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
       <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3497,12 +3504,12 @@
       </c>
       <c r="F16" s="18">
         <f>SUM(F12:F15)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="42" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -3515,7 +3522,7 @@
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="41"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -3524,7 +3531,7 @@
       <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="41"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -3533,7 +3540,7 @@
       <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="41"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -3558,7 +3565,7 @@
       <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="42" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -3571,7 +3578,7 @@
       <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="41"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -3580,7 +3587,7 @@
       <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="41"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -3589,7 +3596,7 @@
       <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="41"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -3598,7 +3605,7 @@
       <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="41"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -3607,7 +3614,7 @@
       <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="41"/>
+      <c r="A27" s="42"/>
       <c r="B27" s="4"/>
       <c r="C27" s="28"/>
       <c r="D27" s="27"/>
@@ -3631,7 +3638,7 @@
       <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="42" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -3644,7 +3651,7 @@
       <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="41"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -3653,7 +3660,7 @@
       <c r="G30" s="14"/>
     </row>
     <row r="31" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="41"/>
+      <c r="A31" s="42"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -3662,7 +3669,7 @@
       <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:7" s="10" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="41"/>
+      <c r="A32" s="42"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -3671,7 +3678,7 @@
       <c r="G32" s="14"/>
     </row>
     <row r="33" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
+      <c r="A33" s="42"/>
       <c r="B33" s="4"/>
       <c r="C33" s="29"/>
       <c r="D33" s="30"/>
@@ -3680,7 +3687,7 @@
       <c r="G33" s="14"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
+      <c r="A34" s="42"/>
       <c r="B34" s="4"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
@@ -3689,7 +3696,7 @@
       <c r="G34" s="14"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
+      <c r="A35" s="42"/>
       <c r="B35" s="4"/>
       <c r="C35" s="29"/>
       <c r="D35" s="29"/>
@@ -3714,64 +3721,59 @@
       <c r="G36" s="14"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="37"/>
       <c r="E37" s="17"/>
       <c r="F37" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="22">
         <f>F11+F16+F21+F28+F36</f>
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="33"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="34"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A29:A35"/>
     <mergeCell ref="A37:D37"/>
@@ -3780,20 +3782,25 @@
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A20"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F26 F28:F32 F36">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",G37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",G37)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3851,10 +3858,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3862,19 +3869,19 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="35" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="8" t="s">
@@ -3885,11 +3892,11 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="34"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="35"/>
       <c r="F6" s="11" t="s">
         <v>3</v>
       </c>
@@ -3898,7 +3905,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="41" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="5"/>
@@ -3909,7 +3916,7 @@
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -3918,7 +3925,7 @@
       <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -3927,7 +3934,7 @@
       <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -3936,7 +3943,7 @@
       <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -3945,7 +3952,7 @@
       <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -3970,7 +3977,7 @@
       <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="42" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="4"/>
@@ -3981,7 +3988,7 @@
       <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -3990,7 +3997,7 @@
       <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -3999,7 +4006,7 @@
       <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -4024,7 +4031,7 @@
       <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="42" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="4"/>
@@ -4035,7 +4042,7 @@
       <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -4044,7 +4051,7 @@
       <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -4053,7 +4060,7 @@
       <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="10"/>
@@ -4078,7 +4085,7 @@
       <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="42" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="4"/>
@@ -4089,7 +4096,7 @@
       <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="E25" s="4"/>
@@ -4097,7 +4104,7 @@
       <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -4106,7 +4113,7 @@
       <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
+      <c r="A27" s="42"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -4131,7 +4138,7 @@
       <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="42" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="4"/>
@@ -4142,7 +4149,7 @@
       <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -4151,7 +4158,7 @@
       <c r="G30" s="14"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
+      <c r="A31" s="42"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -4160,7 +4167,7 @@
       <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
+      <c r="A32" s="42"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -4185,12 +4192,12 @@
       <c r="G33" s="14"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
       <c r="E34" s="17"/>
       <c r="F34" s="17" t="s">
         <v>12</v>
@@ -4201,61 +4208,66 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A35:G40"/>
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="A34:D34"/>
@@ -4264,25 +4276,20 @@
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A24:A27"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F33">
-    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",F7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",G34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",G34)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4321,10 +4328,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -4332,19 +4339,19 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="35" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -4355,11 +4362,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="34"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="11" t="s">
         <v>3</v>
       </c>
@@ -4368,7 +4375,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="41" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="5"/>
@@ -4379,7 +4386,7 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -4388,7 +4395,7 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -4397,7 +4404,7 @@
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -4406,7 +4413,7 @@
       <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -4415,7 +4422,7 @@
       <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -4440,7 +4447,7 @@
       <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="42" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="4"/>
@@ -4451,7 +4458,7 @@
       <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="4"/>
@@ -4460,7 +4467,7 @@
       <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -4469,7 +4476,7 @@
       <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -4494,7 +4501,7 @@
       <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="42" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="4"/>
@@ -4505,7 +4512,7 @@
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -4514,7 +4521,7 @@
       <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -4523,7 +4530,7 @@
       <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="10"/>
@@ -4548,7 +4555,7 @@
       <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="42" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="4"/>
@@ -4559,7 +4566,7 @@
       <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -4568,7 +4575,7 @@
       <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -4577,7 +4584,7 @@
       <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -4602,7 +4609,7 @@
       <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="42" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="4"/>
@@ -4613,7 +4620,7 @@
       <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -4622,7 +4629,7 @@
       <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -4631,7 +4638,7 @@
       <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -4656,12 +4663,12 @@
       <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
       <c r="E32" s="17"/>
       <c r="F32" s="17" t="s">
         <v>12</v>
@@ -4672,67 +4679,61 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A33:G38"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A32:D32"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A12:A15"/>
@@ -4740,20 +4741,26 @@
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A33:G38"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A32:D32"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F31">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",G32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",G32)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4792,10 +4799,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -4803,19 +4810,19 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="35" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -4826,11 +4833,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="34"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="11" t="s">
         <v>3</v>
       </c>
@@ -4839,7 +4846,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="41" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="5"/>
@@ -4850,7 +4857,7 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -4859,7 +4866,7 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -4868,7 +4875,7 @@
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -4877,7 +4884,7 @@
       <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -4886,7 +4893,7 @@
       <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -4911,7 +4918,7 @@
       <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="42" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="4"/>
@@ -4922,7 +4929,7 @@
       <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -4931,7 +4938,7 @@
       <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -4940,7 +4947,7 @@
       <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -4965,7 +4972,7 @@
       <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="42" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="4"/>
@@ -4976,7 +4983,7 @@
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -4985,7 +4992,7 @@
       <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -4994,7 +5001,7 @@
       <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="10"/>
@@ -5019,7 +5026,7 @@
       <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="42" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="4"/>
@@ -5030,7 +5037,7 @@
       <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -5039,7 +5046,7 @@
       <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -5048,7 +5055,7 @@
       <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -5073,7 +5080,7 @@
       <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="42" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="4"/>
@@ -5084,7 +5091,7 @@
       <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -5093,7 +5100,7 @@
       <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -5102,7 +5109,7 @@
       <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -5127,12 +5134,12 @@
       <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
       <c r="E32" s="17"/>
       <c r="F32" s="17" t="s">
         <v>12</v>
@@ -5143,76 +5150,70 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A33:G39"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A32:D32"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A12:A15"/>
@@ -5220,481 +5221,7 @@
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
-  </mergeCells>
-  <conditionalFormatting sqref="F5:F31">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",F5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",F5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",G32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",G32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37F8995-69C5-4415-B491-47DB456548C7}">
-  <dimension ref="A1:G39"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:G39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="18">
-        <f>SUM(F5:F10)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="18">
-        <f>SUM(F12:F15)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="18">
-        <f>SUM(F17:F20)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="18">
-        <f>SUM(F22:F25)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="14"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="14"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="21">
-        <f>SUM(F27:F30)</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="14"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="22">
-        <f>F11+F16+F21+F26+F31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
     <mergeCell ref="A33:G39"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
@@ -5722,6 +5249,486 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37F8995-69C5-4415-B491-47DB456548C7}">
+  <dimension ref="A1:G39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:G39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="42"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="42"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="18">
+        <f>SUM(F5:F10)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="42"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="42"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="42"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="18">
+        <f>SUM(F12:F15)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="42"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="42"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="42"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="18">
+        <f>SUM(F17:F20)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="42"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="42"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="42"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="18">
+        <f>SUM(F22:F25)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="42"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="42"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="42"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="21">
+        <f>SUM(F27:F30)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="22">
+        <f>F11+F16+F21+F26+F31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="44"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="44"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="44"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="44"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="44"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A33:G39"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A32:D32"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F5:F31">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",F5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",F5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",G32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",G32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8130D56E-805D-4CA4-A4B5-6A8EEF788C7C}">
   <dimension ref="A1:G39"/>
@@ -5752,10 +5759,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -5763,19 +5770,19 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="35" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -5786,11 +5793,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="34"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="11" t="s">
         <v>3</v>
       </c>
@@ -5799,7 +5806,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="41" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="5"/>
@@ -5810,7 +5817,7 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -5819,7 +5826,7 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -5828,7 +5835,7 @@
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -5837,7 +5844,7 @@
       <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -5846,7 +5853,7 @@
       <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -5871,7 +5878,7 @@
       <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="42" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="4"/>
@@ -5882,7 +5889,7 @@
       <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -5891,7 +5898,7 @@
       <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -5900,7 +5907,7 @@
       <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -5925,7 +5932,7 @@
       <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="42" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="4"/>
@@ -5936,7 +5943,7 @@
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -5945,7 +5952,7 @@
       <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -5954,7 +5961,7 @@
       <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="23"/>
@@ -5979,7 +5986,7 @@
       <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="42" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="4"/>
@@ -5990,7 +5997,7 @@
       <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="23"/>
@@ -5999,7 +6006,7 @@
       <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -6008,7 +6015,7 @@
       <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -6033,7 +6040,7 @@
       <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="42" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="4"/>
@@ -6044,7 +6051,7 @@
       <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -6053,7 +6060,7 @@
       <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -6062,7 +6069,7 @@
       <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -6087,12 +6094,12 @@
       <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
       <c r="E32" s="17"/>
       <c r="F32" s="17" t="s">
         <v>12</v>
@@ -6103,70 +6110,76 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
     <mergeCell ref="A33:G39"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A12:A15"/>
@@ -6174,26 +6187,20 @@
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F31">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",G32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",G32)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6228,10 +6235,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -6239,19 +6246,19 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="35" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -6262,11 +6269,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="34"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="11" t="s">
         <v>3</v>
       </c>
@@ -6275,7 +6282,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="41" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="5"/>
@@ -6286,7 +6293,7 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -6295,7 +6302,7 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -6304,7 +6311,7 @@
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -6313,7 +6320,7 @@
       <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -6322,7 +6329,7 @@
       <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -6347,7 +6354,7 @@
       <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="42" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="4"/>
@@ -6358,7 +6365,7 @@
       <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -6367,7 +6374,7 @@
       <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -6376,7 +6383,7 @@
       <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -6401,7 +6408,7 @@
       <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="42" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="4"/>
@@ -6412,7 +6419,7 @@
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -6421,7 +6428,7 @@
       <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -6430,7 +6437,7 @@
       <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="23"/>
@@ -6455,7 +6462,7 @@
       <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="42" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="4"/>
@@ -6466,7 +6473,7 @@
       <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="23"/>
@@ -6475,7 +6482,7 @@
       <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -6484,7 +6491,7 @@
       <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -6509,7 +6516,7 @@
       <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="42" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="4"/>
@@ -6520,7 +6527,7 @@
       <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -6529,7 +6536,7 @@
       <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -6538,7 +6545,7 @@
       <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -6563,12 +6570,12 @@
       <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
       <c r="E32" s="17"/>
       <c r="F32" s="17" t="s">
         <v>12</v>
@@ -6579,70 +6586,76 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
     <mergeCell ref="A33:G39"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A12:A15"/>
@@ -6650,26 +6663,20 @@
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F31">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",G32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",G32)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/rpt/Journal de travail/carte_electronique_didactique_PittetL02-rpt-journal.xlsx
+++ b/rpt/Journal de travail/carte_electronique_didactique_PittetL02-rpt-journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/loic_pittet_studentfr_ch/Documents/TPI_PITTETL02/tpi_carte_electronique_didactique_pittetl02/rpt/Journal de travail/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="809" documentId="11_416AEE08F1E9306E2D9B4F0BC9E4841233F83705" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D21DC2C0-4C70-47A7-8377-1A5898A0CFE4}"/>
+  <xr:revisionPtr revIDLastSave="817" documentId="11_416AEE08F1E9306E2D9B4F0BC9E4841233F83705" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4420A692-C822-442B-9BFB-B0AEFA58529E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="129">
   <si>
     <t>Date</t>
   </si>
@@ -462,6 +462,9 @@
   </si>
   <si>
     <t>Discussion sur l'état du projet.</t>
+  </si>
+  <si>
+    <t>Modifications et perfectionnement du routage/placement des composants pour répondre au mieux au souhait de M.Berset.</t>
   </si>
 </sst>
 </file>
@@ -2575,8 +2578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -3240,8 +3243,8 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3508,17 +3511,23 @@
       </c>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="1:7" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A17" s="42" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="6"/>
+      <c r="F17" s="6">
+        <v>5</v>
+      </c>
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3539,13 +3548,19 @@
       <c r="F19" s="6"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="42"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="6"/>
+      <c r="F20" s="6">
+        <v>2</v>
+      </c>
       <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3560,7 +3575,7 @@
       </c>
       <c r="F21" s="18">
         <f>SUM(F17:F20)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G21" s="14"/>
     </row>
@@ -3733,7 +3748,7 @@
       </c>
       <c r="G37" s="22">
         <f>F11+F16+F21+F28+F36</f>
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -4263,11 +4278,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A35:G40"/>
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="A34:D34"/>
@@ -4276,6 +4286,11 @@
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A24:A27"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F33">
     <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="Terminé">
@@ -4734,6 +4749,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A33:G38"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A32:D32"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A12:A15"/>
@@ -4741,12 +4762,6 @@
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A33:G38"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A32:D32"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F31">
     <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="Terminé">
@@ -5214,6 +5229,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A33:G39"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A32:D32"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A12:A15"/>
@@ -5221,12 +5242,6 @@
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A33:G39"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A32:D32"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F31">
     <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Terminé">
@@ -6174,12 +6189,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
     <mergeCell ref="A33:G39"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A12:A15"/>
@@ -6187,6 +6196,12 @@
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F31">
     <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Terminé">
@@ -6650,12 +6665,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
     <mergeCell ref="A33:G39"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A12:A15"/>
@@ -6663,6 +6672,12 @@
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F31">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Terminé">

--- a/rpt/Journal de travail/carte_electronique_didactique_PittetL02-rpt-journal.xlsx
+++ b/rpt/Journal de travail/carte_electronique_didactique_PittetL02-rpt-journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/loic_pittet_studentfr_ch/Documents/TPI_PITTETL02/tpi_carte_electronique_didactique_pittetl02/rpt/Journal de travail/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="817" documentId="11_416AEE08F1E9306E2D9B4F0BC9E4841233F83705" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4420A692-C822-442B-9BFB-B0AEFA58529E}"/>
+  <xr:revisionPtr revIDLastSave="828" documentId="11_416AEE08F1E9306E2D9B4F0BC9E4841233F83705" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA8DF340-33F0-472A-B898-1F96A646E9A3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="132">
   <si>
     <t>Date</t>
   </si>
@@ -465,6 +465,15 @@
   </si>
   <si>
     <t>Modifications et perfectionnement du routage/placement des composants pour répondre au mieux au souhait de M.Berset.</t>
+  </si>
+  <si>
+    <t>Commande du PCB</t>
+  </si>
+  <si>
+    <t>Replacement des résistances côté BOT pour qu'elles soient plus proche de l'IC et pour que les pistes soient moins longues.                                                    Je remarque que le placement des composants fait 80% du travail du Layout. Le routage se facilite vraiment et est de meilleure qualité avec un placement judicieux.</t>
+  </si>
+  <si>
+    <t>Commande du PCB sur EuroCircuit. Exportation des fichiers gerbers et tri de ceux-ci. (Le Coutryhard n'est par exemple pas important pour Eurocircuit.)</t>
   </si>
 </sst>
 </file>
@@ -2771,7 +2780,7 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" s="10" customFormat="1" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="10" customFormat="1" ht="157.5" x14ac:dyDescent="0.2">
       <c r="A12" s="42" t="s">
         <v>5</v>
       </c>
@@ -2792,7 +2801,7 @@
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" s="10" customFormat="1" ht="157.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="10" customFormat="1" ht="146.25" x14ac:dyDescent="0.2">
       <c r="A13" s="42"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -3243,8 +3252,8 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3579,26 +3588,42 @@
       </c>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="10" customFormat="1" ht="112.5" x14ac:dyDescent="0.2">
       <c r="A22" s="42" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="6"/>
+      <c r="C22" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="6">
+        <v>3.5</v>
+      </c>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A23" s="42"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="6"/>
+      <c r="C23" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="6">
+        <v>1.5</v>
+      </c>
       <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3628,12 +3653,19 @@
       <c r="F26" s="6"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A27" s="42"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="27"/>
+      <c r="C27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="E27" s="24"/>
+      <c r="F27" s="10">
+        <v>2</v>
+      </c>
       <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3648,7 +3680,7 @@
       </c>
       <c r="F28" s="18">
         <f>SUM(F22:F27)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G28" s="14"/>
     </row>
@@ -3748,7 +3780,7 @@
       </c>
       <c r="G37" s="22">
         <f>F11+F16+F21+F28+F36</f>
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -4278,6 +4310,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A35:G40"/>
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="A34:D34"/>
@@ -4286,11 +4323,6 @@
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A24:A27"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F33">
     <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="Terminé">
@@ -4749,12 +4781,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A33:G38"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A32:D32"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A12:A15"/>
@@ -4762,6 +4788,12 @@
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A33:G38"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A32:D32"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F31">
     <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="Terminé">
@@ -5229,12 +5261,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A33:G39"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A32:D32"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A12:A15"/>
@@ -5242,6 +5268,12 @@
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A33:G39"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A32:D32"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F31">
     <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Terminé">
@@ -6189,6 +6221,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
     <mergeCell ref="A33:G39"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A12:A15"/>
@@ -6196,12 +6234,6 @@
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F31">
     <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Terminé">
@@ -6665,6 +6697,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
     <mergeCell ref="A33:G39"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A12:A15"/>
@@ -6672,12 +6710,6 @@
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F31">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Terminé">

--- a/rpt/Journal de travail/carte_electronique_didactique_PittetL02-rpt-journal.xlsx
+++ b/rpt/Journal de travail/carte_electronique_didactique_PittetL02-rpt-journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/loic_pittet_studentfr_ch/Documents/TPI_PITTETL02/tpi_carte_electronique_didactique_pittetl02/rpt/Journal de travail/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="828" documentId="11_416AEE08F1E9306E2D9B4F0BC9E4841233F83705" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA8DF340-33F0-472A-B898-1F96A646E9A3}"/>
+  <xr:revisionPtr revIDLastSave="877" documentId="11_416AEE08F1E9306E2D9B4F0BC9E4841233F83705" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{784AD66A-DE79-4858-A39C-AC5643C38FF3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="142">
   <si>
     <t>Date</t>
   </si>
@@ -474,6 +474,36 @@
   </si>
   <si>
     <t>Commande du PCB sur EuroCircuit. Exportation des fichiers gerbers et tri de ceux-ci. (Le Coutryhard n'est par exemple pas important pour Eurocircuit.)</t>
+  </si>
+  <si>
+    <t>Prog</t>
+  </si>
+  <si>
+    <t>Création du firmware pour le nouveau pic reçu aujourd'hui.</t>
+  </si>
+  <si>
+    <t>Test sur plaque d'essai avec le nouveau PIC</t>
+  </si>
+  <si>
+    <t>Même résultat qu'avec l'autre PIC après les mesures à l'oscilloscope pour observer le signal.</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>Release sur GitHub pour avoir la version du PCB voyante sur GitHub.com</t>
+  </si>
+  <si>
+    <t>Commande des composants pour 5 prototype</t>
+  </si>
+  <si>
+    <t>Commande d'une boite de rangement pour le projet</t>
+  </si>
+  <si>
+    <t>J'ai passé plus temps cette semaine sur le rapport de développement pour rattraper mon retard pris la première semaine sur ce document. Il est maintenant à jour quotidiennement.                                                                                                                                     La commande du PCB a été effectué, de même pour les composants. Je suis dans les temps avec même un peu d'avance car le code a été rapidement créer.                     Il me reste à finir mes rapports et de faire un bon protocole de mise en service pour la production. L'assemblage de la carte se fera à la main. Il faudra ensuite faire des mesures pour démontrer le bon fonctionnement de la carte.                                                                                                  Je ne dois pas oublier que jeudi prochain est un jour férié. Je ne dois donc pas trop chômé en penssant avoir de l'avance pour ne pas me retrouver surpris en fin de TPI.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discussion avec M.Berset.                  Modifications et perfectionnement du routage/placement des composants pour répondre au mieux au souhait de M.Berset.                                              Validation de M.Berset de la schematic ainsi que du layout. </t>
   </si>
 </sst>
 </file>
@@ -3252,14 +3282,14 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
+      <pane ySplit="4" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="35" style="1" customWidth="1"/>
     <col min="5" max="5" width="35.5703125" style="1" customWidth="1"/>
@@ -3588,7 +3618,7 @@
       </c>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" s="10" customFormat="1" ht="112.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="10" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="42" t="s">
         <v>8</v>
       </c>
@@ -3599,7 +3629,7 @@
         <v>121</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>130</v>
@@ -3626,7 +3656,7 @@
       </c>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="10" customFormat="1" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="42"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -3635,7 +3665,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="10" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="42"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3644,7 +3674,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" s="10" customFormat="1" ht="11.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="42"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3691,49 +3721,83 @@
       <c r="B29" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="E29" s="4"/>
-      <c r="F29" s="6"/>
+      <c r="F29" s="6">
+        <v>2</v>
+      </c>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" s="10" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="42"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="6"/>
+      <c r="F30" s="6">
+        <v>2</v>
+      </c>
       <c r="G30" s="14"/>
     </row>
-    <row r="31" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="42"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="6"/>
+      <c r="C31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1.5</v>
+      </c>
       <c r="G31" s="14"/>
     </row>
-    <row r="32" spans="1:7" s="10" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="42"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="C32" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="E32" s="4"/>
-      <c r="F32" s="6"/>
+      <c r="F32" s="6">
+        <v>0.5</v>
+      </c>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="42"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
+      <c r="C33" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" s="29">
+        <v>1</v>
+      </c>
       <c r="G33" s="14"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="42"/>
       <c r="B34" s="4"/>
       <c r="C34" s="29"/>
@@ -3742,7 +3806,7 @@
       <c r="F34" s="29"/>
       <c r="G34" s="14"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="42"/>
       <c r="B35" s="4"/>
       <c r="C35" s="29"/>
@@ -3763,7 +3827,7 @@
       </c>
       <c r="F36" s="21">
         <f>SUM(F29:F33)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G36" s="14"/>
     </row>
@@ -3780,11 +3844,13 @@
       </c>
       <c r="G37" s="22">
         <f>F11+F16+F21+F28+F36</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="32" t="s">
+        <v>140</v>
+      </c>
       <c r="B38" s="33"/>
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
@@ -4310,11 +4376,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A35:G40"/>
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="A34:D34"/>
@@ -4323,6 +4384,11 @@
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A24:A27"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F33">
     <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="Terminé">
@@ -4781,6 +4847,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A33:G38"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A32:D32"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A12:A15"/>
@@ -4788,12 +4860,6 @@
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A33:G38"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A32:D32"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F31">
     <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="Terminé">
@@ -5261,6 +5327,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A33:G39"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A32:D32"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A12:A15"/>
@@ -5268,12 +5340,6 @@
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A33:G39"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A32:D32"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F31">
     <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Terminé">
@@ -6221,12 +6287,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
     <mergeCell ref="A33:G39"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A12:A15"/>
@@ -6234,6 +6294,12 @@
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F31">
     <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Terminé">
@@ -6697,12 +6763,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
     <mergeCell ref="A33:G39"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A12:A15"/>
@@ -6710,6 +6770,12 @@
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F31">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Terminé">

--- a/rpt/Journal de travail/carte_electronique_didactique_PittetL02-rpt-journal.xlsx
+++ b/rpt/Journal de travail/carte_electronique_didactique_PittetL02-rpt-journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/loic_pittet_studentfr_ch/Documents/TPI_PITTETL02/tpi_carte_electronique_didactique_pittetl02/rpt/Journal de travail/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="877" documentId="11_416AEE08F1E9306E2D9B4F0BC9E4841233F83705" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{784AD66A-DE79-4858-A39C-AC5643C38FF3}"/>
+  <xr:revisionPtr revIDLastSave="911" documentId="11_416AEE08F1E9306E2D9B4F0BC9E4841233F83705" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88617AA0-5EFD-4D83-AE33-8711447BC896}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="15" r:id="rId1"/>
@@ -44,30 +44,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="143">
   <si>
     <t>Date</t>
   </si>
@@ -140,21 +118,6 @@
     <t>Pittet Loïc</t>
   </si>
   <si>
-    <t>[2024-09-09]</t>
-  </si>
-  <si>
-    <t>[2024-09-10]</t>
-  </si>
-  <si>
-    <t>[2024-09-11]</t>
-  </si>
-  <si>
-    <t>[2024-09-12]</t>
-  </si>
-  <si>
-    <t>[2024-09-13]</t>
-  </si>
-  <si>
     <t>[2024-09-16]</t>
   </si>
   <si>
@@ -335,9 +298,6 @@
     <t>Réussir à tout retenir d'une discussion de 3 heures est compliqué à recracher même 15 minutes après. J'aurais du prendre plus de note au fil et à mesure de la conversation.</t>
   </si>
   <si>
-    <t>La partie comparateur n'a pas la même impédance d'entrée que la sortie du capteur donc il y'a des problèmes lorsque la contre réaction (hystérèse)est branchée. Il faut mettre un conditioneur entre le capteur et le comparateur pour éviter ce problème. Suiveur?                                           Nous devons changer de capteur photo-transistor parce-que celui "proposer" n'est plus disponible. Nous avons donc fait des recherches quand à la fiabilité du nouveau capteur dans notre environnement de travail.                            Ellaboration d'un schéma bloc pour être plus clair dans nos idées. 2 propositions y sont ressortis. Une plus simple à réalisé et une autre plus compliqué. Nous allons partir sur la plus simple des deux.                             Mettre un deuxième capteur photo-transistor pour avoir une lumière de référence pour ainsi pouvoir soustraire la valeur mesuré par le capteur "normal" par le capteur de référence.                         Réflexion de comment être plus précis pour voir l'hystérèse. Au lieu d'approcher et d'éloigner la main, on met un cache lumière sur les côtés pour par être perturbé par la lumière "parasite" et on viendra faire coulisser un petit cache horizontalement pour être précis et voir correctement l'effet de l'hystérèse.                                   Réflexion sur le moyen de générer du bruit. La méthode "Bruit numérique par pseudo-aléatoire (LFSR)" que j'avais trouvé fera l'affaire. C'est l'une des méthodes la plus simple à réalisé. La méthode par PWM a été jugé trop compliqué à designé.                                                         Réflexion si l'on préfère faire un PCB plutôt orienté qualité ou prix. Pour cette application, on préférera un PCB de qualité. (Bien sûr que l'on va faire attention à prendre les composants les moins chers possible) Par exemple, j'ai posé la question si Mr.Berset préférait un jumper pour le prix, ou un switch pour la qualité.</t>
-  </si>
-  <si>
     <t>Réalisation du schéma bloc au propore après la discussion avec Mr.Berset.</t>
   </si>
   <si>
@@ -504,6 +464,27 @@
   </si>
   <si>
     <t xml:space="preserve">Discussion avec M.Berset.                  Modifications et perfectionnement du routage/placement des composants pour répondre au mieux au souhait de M.Berset.                                              Validation de M.Berset de la schematic ainsi que du layout. </t>
+  </si>
+  <si>
+    <t>Réalisation du Protocole de mise en service.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M.Berset a remarqué une erreur…                    Le comparateur a été routé du mauvais sens… Donc la pin - et + sont inversées. De même pour les pins d'alimentations. Il faudra donc faire un peu de bricolage sur la carte.                                    Cette erreur est survenu après avoir changé le symbole de l'AOP. J'ai donc dû enlever et remettre le composants sur le schéma. Cependant, je n'ai pas pensé qu'il fallait de nouveau le remettre dans le bon sens(tourné de 180° puis miroir)... Manque de concentration sur ce coup...                     C'est dommage d'avoir une erreur de schematic autant bête. Et c'est surtout des choses comme cela que je dois contrôlé avant de sortir les fichiers gerbers... </t>
+  </si>
+  <si>
+    <t>La partie comparateur n'a pas la même impédance d'entrée que la sortie du capteur donc il y'a des problèmes lorsque la contre réaction (hystérèse)est branchée. Il faut mettre un conditioneur entre le capteur et le comparateur pour éviter ce problème. Suiveur?                                           Nous devons changer de capteur photo-transistor parce-que celui "proposer" n'est plus disponible. Nous avons donc fait des recherches quand à la fiabilité du nouveau capteur dans notre environnement de travail.                            Ellaboration d'un schéma bloc pour être plus clair dans nos idées. 2 propositions y sont ressortis. Une plus simple à réalisé et une autre plus compliqué. Nous allons partir sur la plus simple des deux.                             Mettre un deuxième capteur photo-transistor pour avoir une lumière de référence pour ainsi pouvoir soustraire la valeur mesuré par le capteur "normal" par le capteur de référence.                         Réflexion de comment être plus précis pour voir l'hystérèse. Au lieu d'approcher et d'éloigner la main, on met un cache lumière sur les côtés pour pas être perturbé par la lumière "parasite" et on viendra faire coulisser un petit cache horizontalement pour être précis et voir correctement l'effet de l'hystérèse.                                   Réflexion sur le moyen de générer du bruit. La méthode "Bruit numérique par pseudo-aléatoire (LFSR)" que j'avais trouvé fera l'affaire. C'est l'une des méthodes la plus simple à réalisé. La méthode par PWM a été jugé trop compliqué à designé.                                                         Réflexion si l'on préfère faire un PCB plutôt orienté qualité ou prix. Pour cette application, on préférera un PCB de qualité. (Bien sûr que l'on va faire attention à prendre les composants les moins chers possible) Par exemple, j'ai posé la question si Mr.Berset préférait un jumper pour le prix, ou un switch pour la qualité.</t>
+  </si>
+  <si>
+    <t>Fwr</t>
+  </si>
+  <si>
+    <t>Création d'un structo gramme</t>
+  </si>
+  <si>
+    <t>Collecte des composants et checklist</t>
+  </si>
+  <si>
+    <t>Il me manque 5 phototransistor que j'ai oublié de commandé (première commande effectué la première semaine)                        J'ai commandé des condensateurs 100nF THT au lieu de SMD.                  Nouvelle commande pour compléter le stock avant que le PCB arrive</t>
   </si>
 </sst>
 </file>
@@ -707,7 +688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -793,6 +774,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2563,47 +2547,47 @@
   <sheetData>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2617,9 +2601,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M19" sqref="M19"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2650,10 +2634,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2661,20 +2645,20 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="35" t="s">
-        <v>98</v>
+      <c r="E3" s="36" t="s">
+        <v>92</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>2</v>
@@ -2684,11 +2668,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="35"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="11" t="s">
         <v>3</v>
       </c>
@@ -2696,18 +2680,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
+    <row r="5" spans="1:7" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A5" s="42" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="13">
@@ -2716,13 +2700,13 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="42"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="13">
@@ -2731,13 +2715,13 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" s="10" customFormat="1" ht="123.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="42"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="13">
@@ -2746,16 +2730,16 @@
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="42"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F8" s="6">
         <v>2</v>
@@ -2763,16 +2747,16 @@
       <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="42"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F9" s="6">
         <v>1</v>
@@ -2780,13 +2764,13 @@
       <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="42"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="6">
@@ -2796,7 +2780,7 @@
     </row>
     <row r="11" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -2811,20 +2795,20 @@
       <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" s="10" customFormat="1" ht="157.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="43" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F12" s="6">
         <v>3</v>
@@ -2832,16 +2816,16 @@
       <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7" s="10" customFormat="1" ht="146.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="42"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F13" s="6">
         <v>3</v>
@@ -2849,13 +2833,13 @@
       <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="42"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="6">
@@ -2864,13 +2848,13 @@
       <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="42"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="6">
@@ -2880,7 +2864,7 @@
     </row>
     <row r="16" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -2895,20 +2879,20 @@
       <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="43" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F17" s="6">
         <v>0.5</v>
@@ -2916,13 +2900,13 @@
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="42"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="6">
@@ -2931,16 +2915,16 @@
       <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" s="10" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="42"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="F19" s="6">
         <v>3</v>
@@ -2948,16 +2932,16 @@
       <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" s="10" customFormat="1" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="42"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F20" s="6">
         <v>0.5</v>
@@ -2966,7 +2950,7 @@
     </row>
     <row r="21" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -2981,17 +2965,17 @@
       <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="43" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="6">
@@ -3000,33 +2984,33 @@
       <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A23" s="42"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F23" s="6">
         <v>2</v>
       </c>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A24" s="42"/>
+    <row r="24" spans="1:7" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="43"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F24" s="6">
         <v>0.5</v>
@@ -3034,13 +3018,13 @@
       <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="42"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="6">
@@ -3049,13 +3033,13 @@
       <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="42"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="6">
@@ -3064,16 +3048,16 @@
       <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" s="10" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="42"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="4"/>
       <c r="C27" s="28" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F27" s="10">
         <v>1</v>
@@ -3082,7 +3066,7 @@
     </row>
     <row r="28" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -3097,17 +3081,17 @@
       <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="43" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="6">
@@ -3116,13 +3100,13 @@
       <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="42"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="6">
@@ -3131,16 +3115,16 @@
       <c r="G30" s="14"/>
     </row>
     <row r="31" spans="1:7" s="10" customFormat="1" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="42"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F31" s="6">
         <v>2</v>
@@ -3148,16 +3132,16 @@
       <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:7" s="10" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="42"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F32" s="6">
         <v>1.5</v>
@@ -3165,13 +3149,13 @@
       <c r="G32" s="14"/>
     </row>
     <row r="33" spans="1:7" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A33" s="42"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="4"/>
       <c r="C33" s="29" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="29">
@@ -3180,7 +3164,7 @@
       <c r="G33" s="14"/>
     </row>
     <row r="34" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="42"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="4"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
@@ -3189,7 +3173,7 @@
       <c r="G34" s="14"/>
     </row>
     <row r="35" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="42"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="4"/>
       <c r="C35" s="29"/>
       <c r="D35" s="29"/>
@@ -3199,7 +3183,7 @@
     </row>
     <row r="36" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="25" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B36" s="26"/>
       <c r="C36" s="19"/>
@@ -3214,12 +3198,12 @@
       <c r="G36" s="14"/>
     </row>
     <row r="37" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="38"/>
       <c r="E37" s="17"/>
       <c r="F37" s="17" t="s">
         <v>12</v>
@@ -3230,15 +3214,15 @@
       </c>
     </row>
     <row r="38" spans="1:7" s="10" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="34"/>
+      <c r="A38" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3281,9 +3265,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3314,10 +3298,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -3325,20 +3309,20 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="35" t="s">
-        <v>98</v>
+      <c r="E3" s="36" t="s">
+        <v>92</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>2</v>
@@ -3348,11 +3332,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="35"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="11" t="s">
         <v>3</v>
       </c>
@@ -3360,21 +3344,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
+    <row r="5" spans="1:7" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="42" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F5" s="13">
         <v>4</v>
@@ -3382,16 +3366,16 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="42"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F6" s="13">
         <v>0.5</v>
@@ -3399,16 +3383,16 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="42"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F7" s="13">
         <v>1.5</v>
@@ -3416,7 +3400,7 @@
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="42"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -3425,7 +3409,7 @@
       <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="42"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -3434,13 +3418,13 @@
       <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="42"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="6">
@@ -3450,7 +3434,7 @@
     </row>
     <row r="11" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -3464,21 +3448,21 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="42" t="s">
+    <row r="12" spans="1:7" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="43" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F12" s="6">
         <v>3.5</v>
@@ -3486,16 +3470,16 @@
       <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="42"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F13" s="6">
         <v>1</v>
@@ -3503,16 +3487,16 @@
       <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="42"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F14" s="6">
         <v>1.5</v>
@@ -3520,13 +3504,13 @@
       <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="42"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="6">
@@ -3536,7 +3520,7 @@
     </row>
     <row r="16" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -3551,17 +3535,17 @@
       <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="43" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="6">
@@ -3570,7 +3554,7 @@
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="42"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -3579,7 +3563,7 @@
       <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="42"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -3588,13 +3572,13 @@
       <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="42"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="6">
@@ -3604,7 +3588,7 @@
     </row>
     <row r="21" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -3619,20 +3603,20 @@
       <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" s="10" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="43" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F22" s="6">
         <v>3.5</v>
@@ -3640,16 +3624,16 @@
       <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="42"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F23" s="6">
         <v>1.5</v>
@@ -3657,7 +3641,7 @@
       <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" s="10" customFormat="1" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="42"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -3666,7 +3650,7 @@
       <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" s="10" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="42"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -3675,7 +3659,7 @@
       <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7" s="10" customFormat="1" ht="11.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="42"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -3684,13 +3668,13 @@
       <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="42"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E27" s="24"/>
       <c r="F27" s="10">
@@ -3700,7 +3684,7 @@
     </row>
     <row r="28" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -3714,18 +3698,18 @@
       </c>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="42" t="s">
+    <row r="29" spans="1:7" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="43" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="6">
@@ -3734,13 +3718,13 @@
       <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" s="10" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="42"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="6">
@@ -3749,16 +3733,16 @@
       <c r="G30" s="14"/>
     </row>
     <row r="31" spans="1:7" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="42"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F31" s="6">
         <v>1.5</v>
@@ -3766,13 +3750,13 @@
       <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:7" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="42"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="6">
@@ -3781,16 +3765,16 @@
       <c r="G32" s="14"/>
     </row>
     <row r="33" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="4"/>
       <c r="C33" s="29" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F33" s="29">
         <v>1</v>
@@ -3798,7 +3782,7 @@
       <c r="G33" s="14"/>
     </row>
     <row r="34" spans="1:7" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="4"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
@@ -3807,7 +3791,7 @@
       <c r="G34" s="14"/>
     </row>
     <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="4"/>
       <c r="C35" s="29"/>
       <c r="D35" s="29"/>
@@ -3817,7 +3801,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B36" s="26"/>
       <c r="C36" s="19"/>
@@ -3832,12 +3816,12 @@
       <c r="G36" s="14"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="38"/>
       <c r="E37" s="17"/>
       <c r="F37" s="17" t="s">
         <v>12</v>
@@ -3848,15 +3832,15 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="34"/>
+      <c r="A38" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="35"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="31"/>
@@ -3926,28 +3910,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF08362A-39DA-4F12-AE49-90700CE33988}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:G40"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" customWidth="1"/>
     <col min="5" max="5" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="7"/>
+      <c r="D1" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="A2" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="39"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -3955,99 +3948,120 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="e" cm="1">
-        <f t="array" ref="A3">A3:G40Journal de travail</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
+      <c r="A3" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="273" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="13">
         <v>2</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
-        <v>6</v>
-      </c>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="43"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="29">
+        <v>2</v>
+      </c>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="43"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
+      <c r="C7" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="13"/>
+      <c r="F7" s="13">
+        <v>1.5</v>
+      </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="13"/>
+    <row r="8" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A8" s="43"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1.5</v>
+      </c>
       <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="13"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -4056,17 +4070,28 @@
       <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="6"/>
+      <c r="A11" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="18">
+        <f>SUM(F5:F10)</f>
+        <v>7</v>
+      </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="4"/>
+    <row r="12" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -4074,34 +4099,25 @@
       <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="18">
-        <f>SUM(F7:F12)</f>
-        <v>0</v>
-      </c>
+      <c r="A13" s="43"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
-        <v>5</v>
-      </c>
+      <c r="A14" s="43"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="6"/>
       <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -4110,17 +4126,28 @@
       <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="6"/>
+      <c r="A16" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="18">
+        <f>SUM(F12:F15)</f>
+        <v>0</v>
+      </c>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="4"/>
+    <row r="17" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -4128,34 +4155,25 @@
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="18">
-        <f>SUM(F14:F17)</f>
-        <v>0</v>
-      </c>
+      <c r="A18" s="43"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="6"/>
       <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
-        <v>7</v>
-      </c>
+      <c r="A19" s="43"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
+      <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="6"/>
       <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -4164,43 +4182,45 @@
       <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="6"/>
+      <c r="A21" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="18">
+        <f>SUM(F17:F20)</f>
+        <v>0</v>
+      </c>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="4"/>
+    <row r="22" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="10"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="6"/>
       <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="18">
-        <f>SUM(F19:F22)</f>
-        <v>0</v>
-      </c>
+      <c r="A23" s="43"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="6"/>
       <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="s">
-        <v>8</v>
-      </c>
+      <c r="A24" s="43"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -4209,15 +4229,16 @@
       <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="6"/>
       <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -4226,17 +4247,17 @@
       <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="6"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="10"/>
       <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -4245,16 +4266,18 @@
         <v>11</v>
       </c>
       <c r="F28" s="18">
-        <f>SUM(F24:F27)</f>
+        <f>SUM(F22:F27)</f>
         <v>0</v>
       </c>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="42" t="s">
+    <row r="29" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="4"/>
+      <c r="B29" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -4262,7 +4285,7 @@
       <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -4271,7 +4294,7 @@
       <c r="G30" s="14"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -4280,7 +4303,7 @@
       <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -4289,121 +4312,121 @@
       <c r="G32" s="14"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="20" t="s">
+      <c r="A33" s="43"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="43"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="14"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="43"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="26"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="21">
-        <f>SUM(F29:F32)</f>
+      <c r="F36" s="21">
+        <f>SUM(F29:F33)</f>
         <v>0</v>
       </c>
-      <c r="G33" s="14"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
+      <c r="G36" s="14"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17" t="s">
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G34" s="22">
-        <f>F13+F18+F23+F28+F33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
+      <c r="G37" s="22">
+        <f>F11+F16+F21+F28+F36</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="33"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="35"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A35:G40"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
   </mergeCells>
-  <conditionalFormatting sqref="F7:F33">
+  <conditionalFormatting sqref="F5 F7:F26 F28:F32 F36">
     <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",F7)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",F5)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",F7)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
+  <conditionalFormatting sqref="G37">
     <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",G34)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",G37)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",G34)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",G37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4441,10 +4464,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -4452,19 +4475,19 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="36" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -4475,11 +4498,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="35"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="11" t="s">
         <v>3</v>
       </c>
@@ -4488,7 +4511,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="42" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="5"/>
@@ -4499,7 +4522,7 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -4508,7 +4531,7 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -4517,7 +4540,7 @@
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -4526,7 +4549,7 @@
       <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -4535,7 +4558,7 @@
       <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -4545,7 +4568,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -4560,7 +4583,7 @@
       <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="43" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="4"/>
@@ -4571,7 +4594,7 @@
       <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="4"/>
@@ -4580,7 +4603,7 @@
       <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -4589,7 +4612,7 @@
       <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -4599,7 +4622,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -4614,7 +4637,7 @@
       <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="43" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="4"/>
@@ -4625,7 +4648,7 @@
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -4634,7 +4657,7 @@
       <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -4643,7 +4666,7 @@
       <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="10"/>
@@ -4653,7 +4676,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -4668,7 +4691,7 @@
       <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="43" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="4"/>
@@ -4679,7 +4702,7 @@
       <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -4688,7 +4711,7 @@
       <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -4697,7 +4720,7 @@
       <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -4707,7 +4730,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -4722,7 +4745,7 @@
       <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="43" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="4"/>
@@ -4733,7 +4756,7 @@
       <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
+      <c r="A28" s="43"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -4742,7 +4765,7 @@
       <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -4751,7 +4774,7 @@
       <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -4761,7 +4784,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -4776,12 +4799,12 @@
       <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
       <c r="E32" s="17"/>
       <c r="F32" s="17" t="s">
         <v>12</v>
@@ -4792,58 +4815,58 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -4912,10 +4935,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -4923,19 +4946,19 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="36" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -4946,11 +4969,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="35"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="11" t="s">
         <v>3</v>
       </c>
@@ -4959,7 +4982,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="42" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="5"/>
@@ -4970,7 +4993,7 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -4979,7 +5002,7 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -4988,7 +5011,7 @@
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -4997,7 +5020,7 @@
       <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -5006,7 +5029,7 @@
       <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -5016,7 +5039,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -5031,7 +5054,7 @@
       <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="43" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="4"/>
@@ -5042,7 +5065,7 @@
       <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -5051,7 +5074,7 @@
       <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -5060,7 +5083,7 @@
       <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -5070,7 +5093,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -5085,7 +5108,7 @@
       <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="43" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="4"/>
@@ -5096,7 +5119,7 @@
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -5105,7 +5128,7 @@
       <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -5114,7 +5137,7 @@
       <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="10"/>
@@ -5124,7 +5147,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -5139,7 +5162,7 @@
       <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="43" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="4"/>
@@ -5150,7 +5173,7 @@
       <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -5159,7 +5182,7 @@
       <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -5168,7 +5191,7 @@
       <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -5178,7 +5201,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -5193,7 +5216,7 @@
       <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="43" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="4"/>
@@ -5204,7 +5227,7 @@
       <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
+      <c r="A28" s="43"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -5213,7 +5236,7 @@
       <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -5222,7 +5245,7 @@
       <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -5232,7 +5255,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -5247,12 +5270,12 @@
       <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
       <c r="E32" s="17"/>
       <c r="F32" s="17" t="s">
         <v>12</v>
@@ -5263,67 +5286,67 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -5392,10 +5415,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -5403,19 +5426,19 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="36" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -5426,11 +5449,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="35"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="11" t="s">
         <v>3</v>
       </c>
@@ -5439,7 +5462,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="42" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="5"/>
@@ -5450,7 +5473,7 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -5459,7 +5482,7 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -5468,7 +5491,7 @@
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -5477,7 +5500,7 @@
       <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -5486,7 +5509,7 @@
       <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -5496,7 +5519,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -5511,7 +5534,7 @@
       <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="43" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="4"/>
@@ -5522,7 +5545,7 @@
       <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -5531,7 +5554,7 @@
       <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -5540,7 +5563,7 @@
       <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -5550,7 +5573,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -5565,7 +5588,7 @@
       <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="43" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="4"/>
@@ -5576,7 +5599,7 @@
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -5585,7 +5608,7 @@
       <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -5594,7 +5617,7 @@
       <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="10"/>
@@ -5604,7 +5627,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -5619,7 +5642,7 @@
       <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="43" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="4"/>
@@ -5630,7 +5653,7 @@
       <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -5639,7 +5662,7 @@
       <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -5648,7 +5671,7 @@
       <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -5658,7 +5681,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -5673,7 +5696,7 @@
       <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="43" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="4"/>
@@ -5684,7 +5707,7 @@
       <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
+      <c r="A28" s="43"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -5693,7 +5716,7 @@
       <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -5702,7 +5725,7 @@
       <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -5712,7 +5735,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -5727,12 +5750,12 @@
       <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
       <c r="E32" s="17"/>
       <c r="F32" s="17" t="s">
         <v>12</v>
@@ -5743,67 +5766,67 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -5872,10 +5895,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -5883,19 +5906,19 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="36" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -5906,11 +5929,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="35"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="11" t="s">
         <v>3</v>
       </c>
@@ -5919,7 +5942,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="42" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="5"/>
@@ -5930,7 +5953,7 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -5939,7 +5962,7 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -5948,7 +5971,7 @@
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -5957,7 +5980,7 @@
       <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -5966,7 +5989,7 @@
       <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -5976,7 +5999,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -5991,7 +6014,7 @@
       <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="43" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="4"/>
@@ -6002,7 +6025,7 @@
       <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -6011,7 +6034,7 @@
       <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -6020,7 +6043,7 @@
       <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -6030,7 +6053,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -6045,7 +6068,7 @@
       <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="43" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="4"/>
@@ -6056,7 +6079,7 @@
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -6065,7 +6088,7 @@
       <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -6074,7 +6097,7 @@
       <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="23"/>
@@ -6084,7 +6107,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -6099,7 +6122,7 @@
       <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="43" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="4"/>
@@ -6110,7 +6133,7 @@
       <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="23"/>
@@ -6119,7 +6142,7 @@
       <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -6128,7 +6151,7 @@
       <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -6138,7 +6161,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -6153,7 +6176,7 @@
       <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="43" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="4"/>
@@ -6164,7 +6187,7 @@
       <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
+      <c r="A28" s="43"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -6173,7 +6196,7 @@
       <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -6182,7 +6205,7 @@
       <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -6192,7 +6215,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -6207,12 +6230,12 @@
       <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
       <c r="E32" s="17"/>
       <c r="F32" s="17" t="s">
         <v>12</v>
@@ -6223,67 +6246,67 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -6348,10 +6371,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -6359,19 +6382,19 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="36" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -6382,11 +6405,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="35"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="11" t="s">
         <v>3</v>
       </c>
@@ -6395,7 +6418,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="42" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="5"/>
@@ -6406,7 +6429,7 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -6415,7 +6438,7 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -6424,7 +6447,7 @@
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -6433,7 +6456,7 @@
       <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -6442,7 +6465,7 @@
       <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -6452,7 +6475,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -6467,7 +6490,7 @@
       <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="43" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="4"/>
@@ -6478,7 +6501,7 @@
       <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -6487,7 +6510,7 @@
       <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -6496,7 +6519,7 @@
       <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -6506,7 +6529,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -6521,7 +6544,7 @@
       <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="43" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="4"/>
@@ -6532,7 +6555,7 @@
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -6541,7 +6564,7 @@
       <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -6550,7 +6573,7 @@
       <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="23"/>
@@ -6560,7 +6583,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -6575,7 +6598,7 @@
       <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="43" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="4"/>
@@ -6586,7 +6609,7 @@
       <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="23"/>
@@ -6595,7 +6618,7 @@
       <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -6604,7 +6627,7 @@
       <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -6614,7 +6637,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -6629,7 +6652,7 @@
       <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="43" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="4"/>
@@ -6640,7 +6663,7 @@
       <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
+      <c r="A28" s="43"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -6649,7 +6672,7 @@
       <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -6658,7 +6681,7 @@
       <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -6668,7 +6691,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -6683,12 +6706,12 @@
       <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
       <c r="E32" s="17"/>
       <c r="F32" s="17" t="s">
         <v>12</v>
@@ -6699,67 +6722,67 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/rpt/Journal de travail/carte_electronique_didactique_PittetL02-rpt-journal.xlsx
+++ b/rpt/Journal de travail/carte_electronique_didactique_PittetL02-rpt-journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/loic_pittet_studentfr_ch/Documents/TPI_PITTETL02/tpi_carte_electronique_didactique_pittetl02/rpt/Journal de travail/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="911" documentId="11_416AEE08F1E9306E2D9B4F0BC9E4841233F83705" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88617AA0-5EFD-4D83-AE33-8711447BC896}"/>
+  <xr:revisionPtr revIDLastSave="925" documentId="11_416AEE08F1E9306E2D9B4F0BC9E4841233F83705" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CE58936-CA23-497C-A42A-FAA90DF461F8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="146">
   <si>
     <t>Date</t>
   </si>
@@ -469,9 +469,6 @@
     <t>Réalisation du Protocole de mise en service.</t>
   </si>
   <si>
-    <t xml:space="preserve">M.Berset a remarqué une erreur…                    Le comparateur a été routé du mauvais sens… Donc la pin - et + sont inversées. De même pour les pins d'alimentations. Il faudra donc faire un peu de bricolage sur la carte.                                    Cette erreur est survenu après avoir changé le symbole de l'AOP. J'ai donc dû enlever et remettre le composants sur le schéma. Cependant, je n'ai pas pensé qu'il fallait de nouveau le remettre dans le bon sens(tourné de 180° puis miroir)... Manque de concentration sur ce coup...                     C'est dommage d'avoir une erreur de schematic autant bête. Et c'est surtout des choses comme cela que je dois contrôlé avant de sortir les fichiers gerbers... </t>
-  </si>
-  <si>
     <t>La partie comparateur n'a pas la même impédance d'entrée que la sortie du capteur donc il y'a des problèmes lorsque la contre réaction (hystérèse)est branchée. Il faut mettre un conditioneur entre le capteur et le comparateur pour éviter ce problème. Suiveur?                                           Nous devons changer de capteur photo-transistor parce-que celui "proposer" n'est plus disponible. Nous avons donc fait des recherches quand à la fiabilité du nouveau capteur dans notre environnement de travail.                            Ellaboration d'un schéma bloc pour être plus clair dans nos idées. 2 propositions y sont ressortis. Une plus simple à réalisé et une autre plus compliqué. Nous allons partir sur la plus simple des deux.                             Mettre un deuxième capteur photo-transistor pour avoir une lumière de référence pour ainsi pouvoir soustraire la valeur mesuré par le capteur "normal" par le capteur de référence.                         Réflexion de comment être plus précis pour voir l'hystérèse. Au lieu d'approcher et d'éloigner la main, on met un cache lumière sur les côtés pour pas être perturbé par la lumière "parasite" et on viendra faire coulisser un petit cache horizontalement pour être précis et voir correctement l'effet de l'hystérèse.                                   Réflexion sur le moyen de générer du bruit. La méthode "Bruit numérique par pseudo-aléatoire (LFSR)" que j'avais trouvé fera l'affaire. C'est l'une des méthodes la plus simple à réalisé. La méthode par PWM a été jugé trop compliqué à designé.                                                         Réflexion si l'on préfère faire un PCB plutôt orienté qualité ou prix. Pour cette application, on préférera un PCB de qualité. (Bien sûr que l'on va faire attention à prendre les composants les moins chers possible) Par exemple, j'ai posé la question si Mr.Berset préférait un jumper pour le prix, ou un switch pour la qualité.</t>
   </si>
   <si>
@@ -485,6 +482,18 @@
   </si>
   <si>
     <t>Il me manque 5 phototransistor que j'ai oublié de commandé (première commande effectué la première semaine)                        J'ai commandé des condensateurs 100nF THT au lieu de SMD.                  Nouvelle commande pour compléter le stock avant que le PCB arrive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M.Berset a remarqué une erreur…                    Le comparateur a été routé du mauvais sens… Donc la pin - et + sont inversées. De même pour les pins d'alimentations. Il faudra donc faire un peu de bricolage sur la carte.                                    Cette erreur est survenu après avoir changé le symbole de l'AOP. J'ai donc dû enlever et remettre le composants sur le schéma. Cependant, je n'ai pas pensé qu'il fallait de nouveau le remettre dans le bon sens(tourné de 180° puis miroir)... Manque de concentration sur ce coup...                     C'est dommage d'avoir une erreur de schematic autant bête. Et c'est surtout des choses comme cela que je dois contrôler avant de sortir les fichiers gerbers... </t>
+  </si>
+  <si>
+    <t>Triage des composants dans une boite que j'ai commandé pour le rangement. Etiquetage de chaque partie.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimisation du code </t>
+  </si>
+  <si>
+    <t>Mesure à l'osciolloscope du signal de bruit</t>
   </si>
 </sst>
 </file>
@@ -2924,7 +2933,7 @@
         <v>77</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F19" s="6">
         <v>3</v>
@@ -3910,8 +3919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF08362A-39DA-4F12-AE49-90700CE33988}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3997,7 +4006,7 @@
         <v>136</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F5" s="13">
         <v>2</v>
@@ -4023,10 +4032,10 @@
       <c r="A7" s="43"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="13">
@@ -4041,10 +4050,10 @@
         <v>72</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="F8" s="6">
         <v>1.5</v>
@@ -4092,37 +4101,61 @@
       <c r="B12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="6"/>
+      <c r="C12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="29">
+        <v>2.5</v>
+      </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="43"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="6"/>
+      <c r="F13" s="6">
+        <v>1.5</v>
+      </c>
       <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="43"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="6"/>
+      <c r="F14" s="6">
+        <v>2</v>
+      </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A15" s="43"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="6"/>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
       <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -4137,7 +4170,7 @@
       </c>
       <c r="F16" s="18">
         <f>SUM(F12:F15)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G16" s="14"/>
     </row>
@@ -4367,7 +4400,7 @@
       </c>
       <c r="G37" s="22">
         <f>F11+F16+F21+F28+F36</f>
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4413,7 +4446,7 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
   </mergeCells>
-  <conditionalFormatting sqref="F5 F7:F26 F28:F32 F36">
+  <conditionalFormatting sqref="F5 F7:F11 F13:F26 F28:F32 F36">
     <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",F5)))</formula>
     </cfRule>

--- a/rpt/Journal de travail/carte_electronique_didactique_PittetL02-rpt-journal.xlsx
+++ b/rpt/Journal de travail/carte_electronique_didactique_PittetL02-rpt-journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/loic_pittet_studentfr_ch/Documents/TPI_PITTETL02/tpi_carte_electronique_didactique_pittetl02/rpt/Journal de travail/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="925" documentId="11_416AEE08F1E9306E2D9B4F0BC9E4841233F83705" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CE58936-CA23-497C-A42A-FAA90DF461F8}"/>
+  <xr:revisionPtr revIDLastSave="944" documentId="11_416AEE08F1E9306E2D9B4F0BC9E4841233F83705" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96380422-9E6E-4057-A731-CC71698D8BEC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="15" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="156">
   <si>
     <t>Date</t>
   </si>
@@ -494,6 +494,36 @@
   </si>
   <si>
     <t>Mesure à l'osciolloscope du signal de bruit</t>
+  </si>
+  <si>
+    <t>Prodduction</t>
+  </si>
+  <si>
+    <t>Montage PCB en faisant la mise en service.</t>
+  </si>
+  <si>
+    <t>Commande PCB</t>
+  </si>
+  <si>
+    <t>Commande du nouveau PCB avec les modifications pour avoir un PCB clean pour la présentation.</t>
+  </si>
+  <si>
+    <t>J'ai effectué beacoup de documentation étant donné que je devais attendre le PCB et que la partie programmation a été réalisé beaucoup plus vite que prévu.</t>
+  </si>
+  <si>
+    <t>[2025-05-30]</t>
+  </si>
+  <si>
+    <t>[2025-05-29]</t>
+  </si>
+  <si>
+    <t>[2025-05-28]</t>
+  </si>
+  <si>
+    <t>[2025-05-27]</t>
+  </si>
+  <si>
+    <t>[2025-05-26]</t>
   </si>
 </sst>
 </file>
@@ -3919,8 +3949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF08362A-39DA-4F12-AE49-90700CE33988}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4080,7 +4110,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -4160,7 +4190,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -4216,7 +4246,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -4237,19 +4267,31 @@
       <c r="B22" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="6"/>
+      <c r="C22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="29">
+        <v>2.5</v>
+      </c>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A23" s="43"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="6"/>
+      <c r="F23" s="6">
+        <v>1</v>
+      </c>
       <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -4261,13 +4303,19 @@
       <c r="F24" s="6"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A25" s="43"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="6"/>
+      <c r="F25" s="6">
+        <v>3</v>
+      </c>
       <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -4290,7 +4338,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -4300,7 +4348,7 @@
       </c>
       <c r="F28" s="18">
         <f>SUM(F22:F27)</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="G28" s="14"/>
     </row>
@@ -4311,28 +4359,46 @@
       <c r="B29" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="E29" s="4"/>
-      <c r="F29" s="6"/>
+      <c r="F29" s="6">
+        <v>3.5</v>
+      </c>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A30" s="43"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="6"/>
+      <c r="F30" s="6">
+        <v>1</v>
+      </c>
       <c r="G30" s="14"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A31" s="43"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="6"/>
+      <c r="C31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="24"/>
+      <c r="F31" s="29">
+        <v>2.5</v>
+      </c>
       <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -4373,7 +4439,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="B36" s="26"/>
       <c r="C36" s="19"/>
@@ -4383,7 +4449,7 @@
       </c>
       <c r="F36" s="21">
         <f>SUM(F29:F33)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G36" s="14"/>
     </row>
@@ -4400,11 +4466,13 @@
       </c>
       <c r="G37" s="22">
         <f>F11+F16+F21+F28+F36</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="33"/>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="33" t="s">
+        <v>150</v>
+      </c>
       <c r="B38" s="34"/>
       <c r="C38" s="34"/>
       <c r="D38" s="34"/>
@@ -4432,6 +4500,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
     <mergeCell ref="A29:A35"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:G38"/>
@@ -4440,13 +4513,8 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
-  <conditionalFormatting sqref="F5 F7:F11 F13:F26 F28:F32 F36">
+  <conditionalFormatting sqref="F5 F7:F11 F13:F21 F36 F23:F26 F28:F30 F32">
     <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",F5)))</formula>
     </cfRule>
@@ -4903,12 +4971,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A33:G38"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A32:D32"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A12:A15"/>
@@ -4916,6 +4978,12 @@
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A33:G38"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A32:D32"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F31">
     <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="Terminé">
@@ -5383,12 +5451,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A33:G39"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A32:D32"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A12:A15"/>
@@ -5396,6 +5458,12 @@
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A33:G39"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A32:D32"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F31">
     <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Terminé">
@@ -6343,6 +6411,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
     <mergeCell ref="A33:G39"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A12:A15"/>
@@ -6350,12 +6424,6 @@
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F31">
     <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Terminé">
@@ -6819,6 +6887,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
     <mergeCell ref="A33:G39"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A12:A15"/>
@@ -6826,12 +6900,6 @@
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F31">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Terminé">

--- a/rpt/Journal de travail/carte_electronique_didactique_PittetL02-rpt-journal.xlsx
+++ b/rpt/Journal de travail/carte_electronique_didactique_PittetL02-rpt-journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/loic_pittet_studentfr_ch/Documents/TPI_PITTETL02/tpi_carte_electronique_didactique_pittetl02/rpt/Journal de travail/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="944" documentId="11_416AEE08F1E9306E2D9B4F0BC9E4841233F83705" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96380422-9E6E-4057-A731-CC71698D8BEC}"/>
+  <xr:revisionPtr revIDLastSave="1000" documentId="11_416AEE08F1E9306E2D9B4F0BC9E4841233F83705" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0662815E-7331-47E8-8811-497838C45343}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="15" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="154">
   <si>
     <t>Date</t>
   </si>
@@ -118,21 +118,6 @@
     <t>Pittet Loïc</t>
   </si>
   <si>
-    <t>[2024-09-16]</t>
-  </si>
-  <si>
-    <t>[2024-09-17]</t>
-  </si>
-  <si>
-    <t>[2024-09-18]</t>
-  </si>
-  <si>
-    <t>[2024-09-19]</t>
-  </si>
-  <si>
-    <t>[2024-09-20]</t>
-  </si>
-  <si>
     <t>[2024-09-23]</t>
   </si>
   <si>
@@ -163,9 +148,6 @@
     <t>[2024-09-30]</t>
   </si>
   <si>
-    <t>Altium</t>
-  </si>
-  <si>
     <t>Production</t>
   </si>
   <si>
@@ -196,18 +178,9 @@
     <t>[2024-10-28]</t>
   </si>
   <si>
-    <t>Présentation</t>
-  </si>
-  <si>
-    <t>Divers</t>
-  </si>
-  <si>
     <t>Programmation</t>
   </si>
   <si>
-    <t>Absent</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -524,6 +497,27 @@
   </si>
   <si>
     <t>[2025-05-26]</t>
+  </si>
+  <si>
+    <t>Modifications dernières erreures pour pouvoir commander une nouvelle version pour la présentation</t>
+  </si>
+  <si>
+    <t>[2025-06-02]</t>
+  </si>
+  <si>
+    <t>[2025-06-03]</t>
+  </si>
+  <si>
+    <t>[2025-06-04]</t>
+  </si>
+  <si>
+    <t>Remplissage rpt de travail, de développement et de l'arboréscence</t>
+  </si>
+  <si>
+    <t>Fin du projet. J'ai réussi à le mener au bout. Cette dernière semaine a été très documentative. J'ai mis à jour toute l'arboréscence avec l'ajout de toutes mes prises de notes. J'ai terminé mon rapport de développement ainsi que de travail. J'ai fait en sorte de rendre tous les documents.</t>
+  </si>
+  <si>
+    <t>Recherches</t>
   </si>
 </sst>
 </file>
@@ -1246,6 +1240,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CH"/>
+              <a:t>Graphique</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-CH" baseline="0"/>
+              <a:t> des heures effectués</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CH"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1538,10 +1562,10 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>Divers</c:v>
+                  <c:v>Discussion</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Altium</c:v>
+                  <c:v>PCB</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Programmation</c:v>
@@ -1550,16 +1574,16 @@
                   <c:v>Production</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Mesures</c:v>
+                  <c:v>Tests</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Documentation</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Absent</c:v>
+                  <c:v>Schematic</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Présentation</c:v>
+                  <c:v>Recherches</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1570,6 +1594,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2576,57 +2624,84 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B4:B12"/>
+  <dimension ref="B4:C12"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="C4">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="C8">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="C9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="C10">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>50</v>
+        <v>41</v>
+      </c>
+      <c r="C12">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2640,8 +2715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
@@ -2697,7 +2772,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>2</v>
@@ -2724,13 +2799,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="13">
@@ -2742,10 +2817,10 @@
       <c r="A6" s="43"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="13">
@@ -2757,10 +2832,10 @@
       <c r="A7" s="43"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="13">
@@ -2772,13 +2847,13 @@
       <c r="A8" s="43"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F8" s="6">
         <v>2</v>
@@ -2789,13 +2864,13 @@
       <c r="A9" s="43"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F9" s="6">
         <v>1</v>
@@ -2806,10 +2881,10 @@
       <c r="A10" s="43"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="6">
@@ -2819,7 +2894,7 @@
     </row>
     <row r="11" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -2838,16 +2913,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="F12" s="6">
         <v>3</v>
@@ -2858,13 +2933,13 @@
       <c r="A13" s="43"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F13" s="6">
         <v>3</v>
@@ -2875,10 +2950,10 @@
       <c r="A14" s="43"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="6">
@@ -2890,10 +2965,10 @@
       <c r="A15" s="43"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="6">
@@ -2903,7 +2978,7 @@
     </row>
     <row r="16" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -2922,16 +2997,16 @@
         <v>7</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F17" s="6">
         <v>0.5</v>
@@ -2942,10 +3017,10 @@
       <c r="A18" s="43"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="6">
@@ -2957,13 +3032,13 @@
       <c r="A19" s="43"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F19" s="6">
         <v>3</v>
@@ -2974,13 +3049,13 @@
       <c r="A20" s="43"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F20" s="6">
         <v>0.5</v>
@@ -2989,7 +3064,7 @@
     </row>
     <row r="21" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -3008,13 +3083,13 @@
         <v>8</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="6">
@@ -3026,13 +3101,13 @@
       <c r="A23" s="43"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F23" s="6">
         <v>2</v>
@@ -3043,13 +3118,13 @@
       <c r="A24" s="43"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F24" s="6">
         <v>0.5</v>
@@ -3060,10 +3135,10 @@
       <c r="A25" s="43"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="6">
@@ -3075,10 +3150,10 @@
       <c r="A26" s="43"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="6">
@@ -3090,13 +3165,13 @@
       <c r="A27" s="43"/>
       <c r="B27" s="4"/>
       <c r="C27" s="28" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F27" s="10">
         <v>1</v>
@@ -3105,7 +3180,7 @@
     </row>
     <row r="28" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -3124,13 +3199,13 @@
         <v>9</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="6">
@@ -3142,10 +3217,10 @@
       <c r="A30" s="43"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="6">
@@ -3157,13 +3232,13 @@
       <c r="A31" s="43"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F31" s="6">
         <v>2</v>
@@ -3174,13 +3249,13 @@
       <c r="A32" s="43"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F32" s="6">
         <v>1.5</v>
@@ -3191,10 +3266,10 @@
       <c r="A33" s="43"/>
       <c r="B33" s="4"/>
       <c r="C33" s="29" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="29">
@@ -3222,7 +3297,7 @@
     </row>
     <row r="36" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="25" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B36" s="26"/>
       <c r="C36" s="19"/>
@@ -3254,7 +3329,7 @@
     </row>
     <row r="38" spans="1:7" s="10" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="33" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B38" s="34"/>
       <c r="C38" s="34"/>
@@ -3305,8 +3380,8 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27:F27"/>
+      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3361,7 +3436,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>2</v>
@@ -3388,16 +3463,16 @@
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F5" s="13">
         <v>4</v>
@@ -3408,13 +3483,13 @@
       <c r="A6" s="43"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F6" s="13">
         <v>0.5</v>
@@ -3425,13 +3500,13 @@
       <c r="A7" s="43"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F7" s="13">
         <v>1.5</v>
@@ -3460,10 +3535,10 @@
       <c r="A10" s="43"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="6">
@@ -3473,7 +3548,7 @@
     </row>
     <row r="11" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -3492,16 +3567,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F12" s="6">
         <v>3.5</v>
@@ -3512,13 +3587,13 @@
       <c r="A13" s="43"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F13" s="6">
         <v>1</v>
@@ -3529,13 +3604,13 @@
       <c r="A14" s="43"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F14" s="6">
         <v>1.5</v>
@@ -3546,10 +3621,10 @@
       <c r="A15" s="43"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="6">
@@ -3559,7 +3634,7 @@
     </row>
     <row r="16" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -3578,13 +3653,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="6">
@@ -3614,10 +3689,10 @@
       <c r="A20" s="43"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="6">
@@ -3627,7 +3702,7 @@
     </row>
     <row r="21" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -3646,16 +3721,16 @@
         <v>8</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="F22" s="6">
         <v>3.5</v>
@@ -3666,13 +3741,13 @@
       <c r="A23" s="43"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F23" s="6">
         <v>1.5</v>
@@ -3710,10 +3785,10 @@
       <c r="A27" s="43"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E27" s="24"/>
       <c r="F27" s="10">
@@ -3723,7 +3798,7 @@
     </row>
     <row r="28" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -3742,13 +3817,13 @@
         <v>9</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="6">
@@ -3760,10 +3835,10 @@
       <c r="A30" s="43"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="6">
@@ -3775,13 +3850,13 @@
       <c r="A31" s="43"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F31" s="6">
         <v>1.5</v>
@@ -3792,10 +3867,10 @@
       <c r="A32" s="43"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="6">
@@ -3807,13 +3882,13 @@
       <c r="A33" s="43"/>
       <c r="B33" s="4"/>
       <c r="C33" s="29" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F33" s="29">
         <v>1</v>
@@ -3840,7 +3915,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B36" s="26"/>
       <c r="C36" s="19"/>
@@ -3872,7 +3947,7 @@
     </row>
     <row r="38" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B38" s="34"/>
       <c r="C38" s="34"/>
@@ -3949,8 +4024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF08362A-39DA-4F12-AE49-90700CE33988}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4000,7 +4075,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>2</v>
@@ -4027,16 +4102,16 @@
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="F5" s="13">
         <v>2</v>
@@ -4047,10 +4122,10 @@
       <c r="A6" s="43"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E6" s="24"/>
       <c r="F6" s="29">
@@ -4062,10 +4137,10 @@
       <c r="A7" s="43"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="13">
@@ -4077,13 +4152,13 @@
       <c r="A8" s="43"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F8" s="6">
         <v>1.5</v>
@@ -4110,7 +4185,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -4129,13 +4204,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="29">
@@ -4147,10 +4222,10 @@
       <c r="A13" s="43"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="6">
@@ -4162,10 +4237,10 @@
       <c r="A14" s="43"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="6">
@@ -4177,10 +4252,10 @@
       <c r="A15" s="43"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="6">
@@ -4190,7 +4265,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -4209,7 +4284,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -4246,7 +4321,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -4265,13 +4340,13 @@
         <v>8</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E22" s="24"/>
       <c r="F22" s="29">
@@ -4283,10 +4358,10 @@
       <c r="A23" s="43"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="6">
@@ -4307,10 +4382,10 @@
       <c r="A25" s="43"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="6">
@@ -4338,7 +4413,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -4357,13 +4432,13 @@
         <v>9</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="6">
@@ -4375,10 +4450,10 @@
       <c r="A30" s="43"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="6">
@@ -4390,10 +4465,10 @@
       <c r="A31" s="43"/>
       <c r="B31" s="4"/>
       <c r="C31" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="29">
@@ -4439,7 +4514,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B36" s="26"/>
       <c r="C36" s="19"/>
@@ -4471,7 +4546,7 @@
     </row>
     <row r="38" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B38" s="34"/>
       <c r="C38" s="34"/>
@@ -4514,7 +4589,7 @@
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="A22:A27"/>
   </mergeCells>
-  <conditionalFormatting sqref="F5 F7:F11 F13:F21 F36 F23:F26 F28:F30 F32">
+  <conditionalFormatting sqref="F5 F7:F11 F13:F21 F23:F26 F28:F30 F32 F36">
     <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",F5)))</formula>
     </cfRule>
@@ -4539,13 +4614,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33F9F35-91F5-4287-AB11-66F24B7EE014}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:G38"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4589,7 +4664,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>2</v>
@@ -4611,24 +4686,38 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
+      <c r="B5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="13"/>
+      <c r="F5" s="13">
+        <v>4</v>
+      </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="13"/>
+      <c r="C6" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="29">
+        <v>3</v>
+      </c>
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -4669,7 +4758,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -4679,25 +4768,33 @@
       </c>
       <c r="F11" s="18">
         <f>SUM(F5:F10)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="6"/>
+      <c r="B12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="13">
+        <v>7</v>
+      </c>
       <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="43"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="6"/>
@@ -4723,7 +4820,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -4733,19 +4830,27 @@
       </c>
       <c r="F16" s="18">
         <f>SUM(F12:F15)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="6"/>
+      <c r="B17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="13">
+        <v>7</v>
+      </c>
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -4770,14 +4875,14 @@
       <c r="A20" s="43"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="10"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="6"/>
       <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -4787,7 +4892,7 @@
       </c>
       <c r="F21" s="18">
         <f>SUM(F17:F20)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G21" s="14"/>
     </row>
@@ -4795,11 +4900,11 @@
       <c r="A22" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="6"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="29"/>
       <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -4830,44 +4935,42 @@
       <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="18">
-        <f>SUM(F22:F25)</f>
-        <v>0</v>
-      </c>
+      <c r="A26" s="43"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="6"/>
       <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="43" t="s">
-        <v>9</v>
-      </c>
+      <c r="A27" s="43"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="6"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="10"/>
       <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="6"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="18">
+        <f>SUM(F22:F27)</f>
+        <v>0</v>
+      </c>
       <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
-      <c r="B29" s="4"/>
+      <c r="A29" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="5"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -4884,108 +4987,108 @@
       <c r="G30" s="14"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20" t="s">
+      <c r="A31" s="43"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="43"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="43"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="43"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="14"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="43"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="25"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="21">
-        <f>SUM(F27:F30)</f>
+      <c r="F36" s="21">
+        <f>SUM(F29:F33)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="14"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
+      <c r="G36" s="14"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17" t="s">
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="22">
-        <f>F11+F16+F21+F26+F31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
+      <c r="G37" s="22">
+        <f>F11+F16+F21+F28+F36</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:G38"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A22:A25"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A33:G38"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A29:A35"/>
   </mergeCells>
-  <conditionalFormatting sqref="F5:F31">
+  <conditionalFormatting sqref="F5 F23:F26 F28:F30 F32 F36 F7:F21">
     <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",F5)))</formula>
     </cfRule>
@@ -4993,12 +5096,12 @@
       <formula>NOT(ISERROR(SEARCH("En cours",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
+  <conditionalFormatting sqref="G37">
     <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",G32)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",G37)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",G32)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",G37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5140,7 +5243,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -5194,7 +5297,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -5248,7 +5351,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -5302,7 +5405,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -5356,7 +5459,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -5620,7 +5723,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -5674,7 +5777,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -5728,7 +5831,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -5782,7 +5885,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -5836,7 +5939,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -6100,7 +6203,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -6154,7 +6257,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -6208,7 +6311,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -6262,7 +6365,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -6316,7 +6419,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -6576,7 +6679,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -6630,7 +6733,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -6684,7 +6787,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -6738,7 +6841,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -6792,7 +6895,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
